--- a/doc/ue_stringtableregistry.xlsx
+++ b/doc/ue_stringtableregistry.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203682FD-4F7D-4578-AAE6-D5A9B8D83970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57ED87-5130-4C05-8179-93F49A2903CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="源码分析" sheetId="2" r:id="rId2"/>
+    <sheet name="FDisplayStringEntry" sheetId="4" r:id="rId3"/>
+    <sheet name="FTextLocalizationManager" sheetId="3" r:id="rId4"/>
+    <sheet name="FText " sheetId="5" r:id="rId5"/>
+    <sheet name="切换Stringtable后FText自动变化的原理" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>LOCTABLE_FROMFILE_GAME("Lang", "Lang", "Data/Lang.csv");</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="182">
   <si>
     <t>编辑器下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,45 +71,664 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编辑器下面为了方便，下面是其具体实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableRegistry::Get().Internal_LocTableFromFile(TEXT(ID), TEXT(NAMESPACE), TEXT(FILEPATH), FPaths::ProjectContentDir())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动调用FStringTableRegistry::Get().Internal_LocTableFromFile，传入不同的路径即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要为了编辑器UMG的文字，开发期就完全绑定好文字；并且在编辑器模式下，文件修改了能随时同步，很方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableEntry</t>
+  </si>
+  <si>
+    <t>文本字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key;Value接口，可以通过KEY查到文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key:FStringTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMESPACE没弄明白呢？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FStringTableRegistry</t>
-  </si>
-  <si>
-    <t>编辑器下面为了方便，下面是其具体实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCTABLE_FROMFILE_GAME("Lang", "Lang", "Data/Lang.csv");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableRef StringTable = FStringTable::NewStringTable();</t>
+  </si>
+  <si>
+    <t>创建一个FStringTable对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTable</t>
+  </si>
+  <si>
+    <t>FStringTableRegistry::Internal_LocTableFromFile(const FName InTableId, const FString&amp; InNamespace, const FString&amp; InFilePath, const FString&amp; InRootPath)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringTable-&gt;SetNamespace(InNamespace);</t>
+  </si>
+  <si>
+    <t>const FString FullPath = InRootPath / InFilePath;</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogStringTable, Warning, TEXT("Failed to import strings from '%s'"), *FullPath);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>RegisterStringTable(InTableId, StringTable);</t>
+  </si>
+  <si>
+    <t>加载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册自己，可以通过tableId查询，内部就是map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置namespace???!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace是什么意思？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!FFileHelper::LoadFileToString(ImportedStrings, *InFilename))</t>
+  </si>
+  <si>
+    <t>FCsvParser解析文件内容（检查表头，必须大于两行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照"key"  "SourceString"字符串，找到对应的位置，其他的列都是metadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取每一行数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过key和SourceString列的数据，创建FStringTableEntryRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入到KeysToEntries：KeysToEntries.Emplace(Key, TableEntry);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入到DisplayStringsToKeys：DisplayStringsToKeys.Emplace(TableEntry-&gt;GetDisplayString(), Key);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个应该和多语言有关系，后面详细讲解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？？内部涉及到FTextLocalizationManager，感觉是和多语言有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理MetaData，暂时不用管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记载文件过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key查询过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define LOCTABLE_NEW(ID, NAMESPACE) \</t>
+  </si>
+  <si>
+    <t>FStringTableRegistry::Get().Internal_NewLocTable(TEXT(ID), TEXT(NAMESPACE))</t>
+  </si>
+  <si>
+    <t>#define LOCTABLE_FROMFILE_ENGINE(ID, NAMESPACE, FILEPATH) \</t>
+  </si>
+  <si>
+    <t>FStringTableRegistry::Get().Internal_LocTableFromFile(TEXT(ID), TEXT(NAMESPACE), TEXT(FILEPATH), FPaths::EngineContentDir())</t>
+  </si>
+  <si>
+    <t>#define LOCTABLE_FROMFILE_GAME(ID, NAMESPACE, FILEPATH) \</t>
   </si>
   <si>
     <t>FStringTableRegistry::Get().Internal_LocTableFromFile(TEXT(ID), TEXT(NAMESPACE), TEXT(FILEPATH), FPaths::ProjectContentDir())</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动调用FStringTableRegistry::Get().Internal_LocTableFromFile，传入不同的路径即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要为了编辑器UMG的文字，开发期就完全绑定好文字；并且在编辑器模式下，文件修改了能随时同步，很方便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FStringTableEntry</t>
-  </si>
-  <si>
-    <t>文本字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key;Value接口，可以通过KEY查到文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FStringTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key:FStringTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAMESPACE没弄明白呢？！！！！</t>
+  </si>
+  <si>
+    <t>加载文件的宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载文字文件过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableRegistry::Get().Internal_FindLocTableEntry(TEXT(ID), TEXT(KEY), EStringTableLoadingPolicy::FindOrLoad)</t>
+  </si>
+  <si>
+    <t>宏定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText::FText( FName InTableId, FString InKey, const EStringTableLoadingPolicy InLoadingPolicy )</t>
+  </si>
+  <si>
+    <t>: TextData(new TIndirectTextData&lt;FTextHistory_StringTableEntry&gt;(FTextHistory_StringTableEntry(InTableId, MoveTemp(InKey), InLoadingPolicy)))</t>
+  </si>
+  <si>
+    <t>, Flags(0)</t>
+  </si>
+  <si>
+    <t>FTextHistory_StringTableEntry</t>
+  </si>
+  <si>
+    <t>FTextHistory_StringTableEntry::FTextHistory_StringTableEntry(FName InTableId, FString&amp;&amp; InKey, const EStringTableLoadingPolicy InLoadingPolicy)</t>
+  </si>
+  <si>
+    <t>: StringTableReferenceData(MakeShared&lt;FStringTableReferenceData, ESPMode::ThreadSafe&gt;())</t>
+  </si>
+  <si>
+    <t>StringTableReferenceData-&gt;Initialize(&amp;Revision, InTableId, MoveTemp(InKey), InLoadingPolicy);</t>
+  </si>
+  <si>
+    <t>创建了一个FStringTableReferenceData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FCsvParser ImportedStringsParser(ImportedStrings);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayString是什么意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisteredStringTables.Add(InTableId, MoveTemp(InTable));</t>
+  </si>
+  <si>
+    <t>TMap&lt;FString, FStringTableEntryPtr, FDefaultSetAllocator, FLocKeyMapFuncs&lt;FStringTableEntryPtr&gt;&gt; KeysToEntries;</t>
+  </si>
+  <si>
+    <t>Key和Entiry映射关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMap&lt;FTextDisplayStringPtr, FString&gt; DisplayStringsToKeys;</t>
+  </si>
+  <si>
+    <t>FTextDisplayString和key的映射关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？！！FTextDisplayStringPtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool GetSourceString(const FString&amp; InKey, FString&amp; OutSourceString) const;</t>
+  </si>
+  <si>
+    <t>获取制定Key对应的SourceString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString TableNamespace;</t>
+  </si>
+  <si>
+    <t>NameSpace，这个和Entity，DisplayString有关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UStringTable</t>
+  </si>
+  <si>
+    <t>virtual void FinishDestroy() override;</t>
+  </si>
+  <si>
+    <t>virtual void PostLoad() override;</t>
+  </si>
+  <si>
+    <t>和FStringTable关联的UE-Object对象；可以从Uobject关联一个表格，加载之后就等于加载了Fsringtable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace和key,sourcestring一起创建FTextDisplayStringPtr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDisplayStringEntry</t>
+  </si>
+  <si>
+    <t>FTextDisplayStringRef DisplayString;</t>
+  </si>
+  <si>
+    <t>uint32 SourceStringHash;</t>
+  </si>
+  <si>
+    <t>bool bIsLocalized;</t>
+  </si>
+  <si>
+    <t>struct FDisplayStringEntry</t>
+  </si>
+  <si>
+    <t>#if WITH_EDITORONLY_DATA</t>
+  </si>
+  <si>
+    <t>FTextKey LocResID;</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>#if ENABLE_LOC_TESTING</t>
+  </si>
+  <si>
+    <t>FString NativeStringBackup;</t>
+  </si>
+  <si>
+    <t>FDisplayStringEntry(const bool InIsLocalized, const FTextKey&amp; InLocResID, const uint32 InSourceStringHash, const FTextDisplayStringRef&amp; InDisplayString)</t>
+  </si>
+  <si>
+    <t>: DisplayString(InDisplayString)</t>
+  </si>
+  <si>
+    <t>, LocResID(InLocResID)</t>
+  </si>
+  <si>
+    <t>, SourceStringHash(InSourceStringHash)</t>
+  </si>
+  <si>
+    <t>, bIsLocalized(InIsLocalized)</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>/** Singleton class that manages display strings for FText. */</t>
+  </si>
+  <si>
+    <t>管理Display Strings的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UStringTable* FindStringTableAsset(const FName InTableId) const;</t>
+  </si>
+  <si>
+    <t>通过tableId找到UStringtable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过tableId找到FStringtable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTablePtr FindMutableStringTable(const FName InTableId) const;</t>
+  </si>
+  <si>
+    <t>FStringTableConstPtr FindStringTable(const FName InTableId) const;</t>
+  </si>
+  <si>
+    <t>本质上就是加载csv文件，每一个对应对应一个Fstringtable类，然后map&lt;tableid, Fstringtable&gt;存在于FStringTableRegistry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询时，先通过tableid在FStringTableRegistry找到Fstringtable，然后在Fstringtable里面在通过key查询sourceString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.unrealengine.com/4.27/zh-CN/ProductionPipelines/Localization/StringTables/</t>
+  </si>
+  <si>
+    <t>FText::FromStringTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也是返回FText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText FStringTableRegistry::Internal_FindLocTableEntry(const FName InTableId, const FString&amp; InKey, const EStringTableLoadingPolicy InLoadingPolicy) const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!StringTable-&gt;ImportStrings(FullPath))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextId</t>
+  </si>
+  <si>
+    <t>/** Namespace component of this text identity */</t>
+  </si>
+  <si>
+    <t>FTextKey Namespace;</t>
+  </si>
+  <si>
+    <t>/** Key component of this text identity */</t>
+  </si>
+  <si>
+    <t>FTextKey Key;</t>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerializeAsString</t>
+  </si>
+  <si>
+    <t>函数：一系列序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static FORCEINLINE uint32 HashString(const TCHAR* InStr, const uint32 InBaseHash = 0)</t>
+  </si>
+  <si>
+    <t>计算SourceString的hash值，内部使用CRC32算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef TMap&lt;FTextId, FDisplayStringEntry&gt; FDisplayStringLookupTable;</t>
+  </si>
+  <si>
+    <t>FDisplayStringLookupTable DisplayStringLookupTable;</t>
+  </si>
+  <si>
+    <t>FTextId和FDisplayStringEntry的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef TMap&lt;FTextDisplayStringRef, FTextId&gt; FNamespaceKeyLookupTable;</t>
+  </si>
+  <si>
+    <t>FNamespaceKeyLookupTable NamespaceKeyLookupTable;</t>
+  </si>
+  <si>
+    <t>相关的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef TSharedRef&lt;FString, ESPMode::ThreadSafe&gt; FTextDisplayStringRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextDisplayStringRef</t>
+  </si>
+  <si>
+    <t>FTextDisplayStringRef DisplayString;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextDisplayStringRef就是Fstring的指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextDisplayStringRef FTextLocalizationManager::GetDisplayString(const FTextKey&amp; Namespace, const FTextKey&amp; Key, const FString* const SourceString)</t>
+  </si>
+  <si>
+    <t>const FTextId TextId(Namespace, Key);</t>
+  </si>
+  <si>
+    <t>生成TextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const uint32 SourceStringHash = SourceString ? FTextLocalizationResource::HashString(*SourceString) : 0;</t>
+  </si>
+  <si>
+    <t>计算源字符串的Hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDisplayStringEntry* LiveEntry = DisplayStringLookupTable.Find(TextId);</t>
+  </si>
+  <si>
+    <t>是否已经存在了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FString* DisplayString = SourceString;</t>
+  </si>
+  <si>
+    <t>如果不存在，表示是新的：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const FTextDisplayStringRef UnlocalizedString = MakeShared&lt;FString, ESPMode::ThreadSafe&gt;(DisplayString ? *DisplayString : FString());</t>
+  </si>
+  <si>
+    <t>生成一个FTextDisplayStringRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDisplayStringEntry NewEntry(</t>
+  </si>
+  <si>
+    <t>bShouldLEETIFYAll</t>
+  </si>
+  <si>
+    <t>/*bIsLocalized*/</t>
+  </si>
+  <si>
+    <t>, FTextKey()</t>
+  </si>
+  <si>
+    <t>/*LocResID*/</t>
+  </si>
+  <si>
+    <t>, SourceStringHash</t>
+  </si>
+  <si>
+    <t>/*SourceStringHash*/</t>
+  </si>
+  <si>
+    <t>, UnlocalizedString</t>
+  </si>
+  <si>
+    <t>/*String*/</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>创建一个FDisplayStringEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayStringLookupTable.Emplace(TextId, NewEntry);</t>
+  </si>
+  <si>
+    <t>插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NamespaceKeyLookupTable.Emplace(NewEntry.DisplayString, TextId);</t>
+  </si>
+  <si>
+    <t>FTextLocalizationManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define LOCTABLE(ID, KEY) \</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言切换FStringTable:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableRegistry::Get().UnregisterStringTable("UpdateLang");</t>
+  </si>
+  <si>
+    <t>LOCTABLE_FROMFILE_GAME("UpdateLang", "UpdateLang", "Lang/en/updatelang.csv");</t>
+  </si>
+  <si>
+    <t>LOCTABLE_FROMFILE_GAME("UpdateLang", "UpdateLang", "Lang/cn/updatelang.csv");</t>
+  </si>
+  <si>
+    <t>切换英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ftext变化的原理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当我们切换上面的Fstringtable后，UMG对应的UTextBlock会自动变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableEntryConstPtr FTextHistory_StringTableEntry::FStringTableReferenceData::ResolveStringTableEntry()</t>
+  </si>
+  <si>
+    <t>每次切换，该函数里面的StringTableEntry会失效，会重新计算一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextDisplayStringRef FTextHistory_StringTableEntry::GetDisplayString() const</t>
+  </si>
+  <si>
+    <t>TIndirectTextData::GetDisplayString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMG里面设置的字符串，绑定是FStringTable的key之后：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ftext:: FText( FName InTableId, FString InKey, const EStringTableLoadingPolicy InLoadingPolicy );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">: TextData(new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIndirectTextData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FTextHistory_StringTableEntry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;(FTextHistory_StringTableEntry(InTableId, MoveTemp(InKey), InLoadingPolicy)))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableConstPtr StringTable = FStringTableRegistry::Get().FindStringTable(TableId);</t>
+  </si>
+  <si>
+    <t>if (StringTable.IsValid())</t>
+  </si>
+  <si>
+    <t>if (!StringTable-&gt;IsLoaded())</t>
+  </si>
+  <si>
+    <t>// Table still loading - cannot be resolved yet</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>StringTableEntryPin = StringTable-&gt;FindEntry(Key);</t>
+  </si>
+  <si>
+    <t>StringTableEntry = StringTableEntryPin;</t>
+  </si>
+  <si>
+    <t>重新计算函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FStringTableRegistry::Get().UnregisterStringTable("UpdateLang");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要原因就是每次UnregisterStringTable之后，之前存在的StringTableEntry就失效了，所以每次计算的时候都需要重新在查找一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看到，这个是一个弱指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +796,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -187,6 +808,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -472,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,12 +1111,12 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,12 +1124,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -514,23 +1137,23 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -540,38 +1163,38 @@
     </row>
     <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.2">
@@ -585,4 +1208,1100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433F8577-4367-4710-9D7B-532D5FEE0454}">
+  <dimension ref="A1:S106"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L102" sqref="L102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E51" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E87" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="F94" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C102" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C104" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89AA04-6776-4075-B174-2080C32746F3}">
+  <dimension ref="B8:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91035818-3C8B-4731-92DE-430381FB5A79}">
+  <dimension ref="B3:O73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D50" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="E55" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F56" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F59" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>139</v>
+      </c>
+      <c r="L62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>141</v>
+      </c>
+      <c r="M66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>143</v>
+      </c>
+      <c r="L67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>145</v>
+      </c>
+      <c r="L68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F71" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D44C05-A3F0-4092-A554-83B73EA187A3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45523762-4AEC-40BF-8570-02A3952AE06E}">
+  <dimension ref="B6:G54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E25" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D37" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D42" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_stringtableregistry.xlsx
+++ b/doc/ue_stringtableregistry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D57ED87-5130-4C05-8179-93F49A2903CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -596,9 +595,6 @@
   </si>
   <si>
     <t>LOCTABLE_FROMFILE_GAME("UpdateLang", "UpdateLang", "Lang/en/updatelang.csv");</t>
-  </si>
-  <si>
-    <t>LOCTABLE_FROMFILE_GAME("UpdateLang", "UpdateLang", "Lang/cn/updatelang.csv");</t>
   </si>
   <si>
     <t>切换英文</t>
@@ -731,11 +727,15 @@
     <t>可以看到，这个是一个弱指针</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LOCTABLE_FROMFILE_GAME("UpdateLang", "UpdateLang", "Lang/cn/updatelang.csv");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1092,7 +1092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1211,7 +1211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433F8577-4367-4710-9D7B-532D5FEE0454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC89AA04-6776-4075-B174-2080C32746F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91035818-3C8B-4731-92DE-430381FB5A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O73"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -2097,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D44C05-A3F0-4092-A554-83B73EA187A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2112,11 +2112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45523762-4AEC-40BF-8570-02A3952AE06E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -2143,42 +2143,42 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E25" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -2188,7 +2188,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -2208,45 +2208,45 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D37" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D42" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.2">
@@ -2256,7 +2256,7 @@
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.2">
@@ -2266,12 +2266,12 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.2">
@@ -2281,7 +2281,7 @@
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">
@@ -2291,12 +2291,12 @@
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E53" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_stringtableregistry.xlsx
+++ b/doc/ue_stringtableregistry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49FEC2F-4932-46AB-A934-BA2652591413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
   <si>
     <t>编辑器下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,11 +732,47 @@
     <t>LOCTABLE_FROMFILE_GAME("UpdateLang", "UpdateLang", "Lang/cn/updatelang.csv");</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>不同的构造函数不同的含义：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText::FText( TSharedRef&lt;ITextData, ESPMode::ThreadSafe&gt; InTextData )</t>
+  </si>
+  <si>
+    <t>: TextData(MoveTemp(InTextData))</t>
+  </si>
+  <si>
+    <t>FText::FText( FString&amp;&amp; InSourceString )</t>
+  </si>
+  <si>
+    <t>: TextData(MakeShared&lt;FTextHistory_Base, ESPMode::ThreadSafe&gt;(FTextId(), MoveTemp(InSourceString)))</t>
+  </si>
+  <si>
+    <t>: TextData(MakeShared&lt;FTextHistory_StringTableEntry, ESPMode::ThreadSafe&gt;(InTableId, MoveTemp(InKey), InLoadingPolicy))</t>
+  </si>
+  <si>
+    <t>通过stringtable构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText::FText( FString&amp;&amp; InSourceString, const FTextKey&amp; InNamespace, const FTextKey&amp; InKey, uint32 InFlags )</t>
+  </si>
+  <si>
+    <t>: TextData(MakeShared&lt;FTextHistory_Base, ESPMode::ThreadSafe&gt;(FTextId(InNamespace, InKey), MoveTemp(InSourceString)))</t>
+  </si>
+  <si>
+    <t>通过多语言的FTextLocalizationManager方式构造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, Flags(InFlags)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1092,11 +1129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
@@ -1682,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B8:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1808,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:O73"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -2097,26 +2134,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D3:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B6:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_stringtableregistry.xlsx
+++ b/doc/ue_stringtableregistry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49FEC2F-4932-46AB-A934-BA2652591413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,9 +213,6 @@
   </si>
   <si>
     <t>#define LOCTABLE_NEW(ID, NAMESPACE) \</t>
-  </si>
-  <si>
-    <t>FStringTableRegistry::Get().Internal_NewLocTable(TEXT(ID), TEXT(NAMESPACE))</t>
   </si>
   <si>
     <t>#define LOCTABLE_FROMFILE_ENGINE(ID, NAMESPACE, FILEPATH) \</t>
@@ -768,11 +764,15 @@
   <si>
     <t>, Flags(InFlags)</t>
   </si>
+  <si>
+    <t>FStringTableRegistry::Get().Internal_NewLocTable(TEXT(ID), TEXT(NAMESPACE))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1129,10 +1129,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1248,11 +1248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L102" sqref="L102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1265,19 +1265,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1288,25 +1288,25 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1320,43 +1320,43 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1365,13 +1365,13 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5"/>
     </row>
@@ -1394,32 +1394,32 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>29</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D46" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>38</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="G55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="3:18" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -1594,43 +1594,43 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E87" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.2">
@@ -1645,12 +1645,12 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.2">
@@ -1660,10 +1660,10 @@
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F94" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q94" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="Q94" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.2">
@@ -1673,12 +1673,12 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
@@ -1688,27 +1688,27 @@
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C102" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C104" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1730,12 +1730,12 @@
   <sheetData>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -1745,82 +1745,82 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
@@ -1835,7 +1835,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O73"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -1856,223 +1856,223 @@
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C32" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C43" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D46" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D50" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E55" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F56" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F59" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G62" t="s">
+        <v>138</v>
+      </c>
+      <c r="L62" t="s">
         <v>139</v>
-      </c>
-      <c r="L62" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="64" spans="4:15" x14ac:dyDescent="0.2">
@@ -2080,51 +2080,51 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G66" t="s">
+        <v>140</v>
+      </c>
+      <c r="M66" t="s">
         <v>141</v>
-      </c>
-      <c r="M66" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="67" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G67" t="s">
+        <v>142</v>
+      </c>
+      <c r="L67" t="s">
         <v>143</v>
-      </c>
-      <c r="L67" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="68" spans="6:13" x14ac:dyDescent="0.2">
       <c r="G68" t="s">
+        <v>144</v>
+      </c>
+      <c r="L68" t="s">
         <v>145</v>
-      </c>
-      <c r="L68" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="69" spans="6:13" x14ac:dyDescent="0.2">
       <c r="H69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F71" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2134,10 +2134,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2145,22 +2145,22 @@
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.2">
@@ -2175,17 +2175,17 @@
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.2">
@@ -2200,20 +2200,20 @@
     </row>
     <row r="17" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="5:20" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.2">
@@ -2228,20 +2228,20 @@
     </row>
     <row r="23" spans="5:20" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="5:20" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" spans="5:20" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="5:20" x14ac:dyDescent="0.2">
@@ -2261,7 +2261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2272,77 +2272,77 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E25" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -2357,45 +2357,45 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.2">
@@ -2415,12 +2415,12 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.2">
       <c r="G48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.2">
@@ -2430,7 +2430,7 @@
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">
@@ -2440,12 +2440,12 @@
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E53" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
